--- a/Personal por llamado de atención.xlsx
+++ b/Personal por llamado de atención.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7680" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="GROCEROS" sheetId="1" r:id="rId1"/>
+    <sheet name="29 10 2015" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,121 +25,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>JOVANNY GARCIA TABERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUAN DAVID MUÑOZ </t>
-  </si>
-  <si>
-    <t>JUAN ESTEBAN AGUDELO IGINIO</t>
-  </si>
-  <si>
-    <t>MARIA DEL CARMEN PUERTA GOEZ</t>
-  </si>
-  <si>
-    <t>BRAYAN STIVEN ESCOBAR SALDARRIAGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAVIER HUMBERTO GUERRA MAZO </t>
-  </si>
-  <si>
-    <t>NORBEY LEON GUZMAN BRAN</t>
-  </si>
-  <si>
-    <t>JOHAN ANDRES VELASQUEZ PINO</t>
-  </si>
-  <si>
-    <t>DIEGO ALEXANDER ALARCON DUQUE</t>
-  </si>
-  <si>
-    <t>OMAR DE JESUS BEDOYA BRAND</t>
-  </si>
-  <si>
-    <t>ELKIN ALEXANDER ROJAS BOLIVAR</t>
-  </si>
-  <si>
-    <t>JHOAN ARTURO MEJIA ZABALA</t>
-  </si>
-  <si>
-    <t>ROBERTO LUIS GIRALDO OROZCO</t>
-  </si>
-  <si>
-    <t>BLANCA ISABEL MONTOYA ZAPATA</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>GABRIEL OZUNA RAMIREZ</t>
+  </si>
+  <si>
+    <t>GERMAN DE JESUS CHAVARRIA CALLEJAS</t>
+  </si>
+  <si>
+    <t>DUVAN MATEO MURILLO MORENO</t>
+  </si>
+  <si>
+    <t>CEDULA</t>
+  </si>
+  <si>
+    <t>ISRAEL PEÑA AVENDAÑO</t>
   </si>
   <si>
     <t>MARTHA MOSQUERA PALACIO</t>
   </si>
   <si>
-    <t>EDITH JAQUELINE PORTELA TABORDA</t>
-  </si>
-  <si>
-    <t>LUZ ELENA DURANGO URREGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLOR ELENA GUZMAN TORRES </t>
-  </si>
-  <si>
-    <t>WILLIAM ANTONIO MARULANDA JIMENEZ</t>
-  </si>
-  <si>
-    <t>AUGUSTO ANTONIO MUÑOZ MONTOYA</t>
-  </si>
-  <si>
-    <t>BERTHA CECILIA USUGA MONTOYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESNEIDER ALEXANDER CAÑOLA CARDENAS </t>
-  </si>
-  <si>
-    <t>MARCOS ANTONIO ARISTIZABAL SUAREZ</t>
-  </si>
-  <si>
-    <t>YULIANA MARIA OCHOA VELEZ</t>
-  </si>
-  <si>
-    <t>ELVIS MAURICIO SEPULVEDA DIAZ</t>
-  </si>
-  <si>
-    <t>JESUS JOVANNY GARCIA LOAIZA</t>
-  </si>
-  <si>
-    <t>MARIA ISAVEL MURLLO RAMIREZ</t>
-  </si>
-  <si>
-    <t>NOMBRE</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>DIANA PATRCIA RODAS BERRIO</t>
-  </si>
-  <si>
-    <t>LILIANA MARIA MONTOYA HOLGIN</t>
-  </si>
-  <si>
-    <t>HUNBERTO HURTADO SAZALAR</t>
-  </si>
-  <si>
-    <t>OSCAR ALBERTO SEPULVEDA LOPEZ</t>
-  </si>
-  <si>
-    <t>ELKIN BEDOYA ORTIZ</t>
+    <t>WILBERTO ARRIETA MARTINEZ</t>
   </si>
   <si>
     <t>ORLANDO LUIS GUSMAN GUSMAN</t>
   </si>
   <si>
-    <t>CARLOS DANIEL TABARES JARAMILLO</t>
+    <t>NUMERO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,16 +91,50 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="CalBRI"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="CalBRI"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -197,40 +157,46 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,296 +477,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B36"/>
+  <dimension ref="A2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="C3" s="5">
+        <v>9041022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="C4" s="7">
+        <v>70579357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="C5" s="5">
+        <v>1020105882</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:4">
       <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="C7" s="10">
+        <v>7487839</v>
+      </c>
+      <c r="D7" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="C8" s="11">
+        <v>1003934992</v>
+      </c>
+      <c r="D8" s="13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="C9" s="11">
+        <v>78646043</v>
+      </c>
+      <c r="D9" s="13">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>28</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>33</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>34</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>35</v>
+      <c r="C10" s="12">
+        <v>70351711</v>
+      </c>
+      <c r="D10" s="14">
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/Personal por llamado de atención.xlsx
+++ b/Personal por llamado de atención.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7680" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GROCEROS" sheetId="1" r:id="rId1"/>
     <sheet name="29 10 2015" sheetId="2" r:id="rId2"/>
+    <sheet name="30 10 2015" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -45,12 +46,6 @@
     <t>CEDULA</t>
   </si>
   <si>
-    <t>ISRAEL PEÑA AVENDAÑO</t>
-  </si>
-  <si>
-    <t>MARTHA MOSQUERA PALACIO</t>
-  </si>
-  <si>
     <t>WILBERTO ARRIETA MARTINEZ</t>
   </si>
   <si>
@@ -58,13 +53,19 @@
   </si>
   <si>
     <t>NUMERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUAN DAVID MUÑOZ </t>
+  </si>
+  <si>
+    <t>JUAN ESTEBAN AGUDELO IGINIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +113,13 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -161,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -186,9 +194,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -197,6 +202,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,10 +555,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:D10"/>
+  <dimension ref="B6:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -560,7 +574,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -568,42 +582,83 @@
         <v>6</v>
       </c>
       <c r="C7" s="10">
-        <v>7487839</v>
-      </c>
-      <c r="D7" s="13">
+        <v>78646043</v>
+      </c>
+      <c r="D7" s="12">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11">
+        <v>70351711</v>
+      </c>
+      <c r="D8" s="13">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4">
+      <c r="B4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="9" t="s">
+    <row r="5" spans="2:4">
+      <c r="B5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1036650228</v>
+      </c>
+      <c r="D5" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1017210666</v>
+      </c>
+      <c r="D6" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11">
-        <v>1003934992</v>
-      </c>
-      <c r="D8" s="13">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11">
-        <v>78646043</v>
-      </c>
-      <c r="D9" s="13">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="C7" s="18">
         <v>70351711</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D7" s="14">
         <v>287</v>
       </c>
     </row>
